--- a/phan_2/data/data_th.xlsx
+++ b/phan_2/data/data_th.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\it004\da1\phan_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9282F57E-B1AC-400F-B9CE-15A04282ED7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B3F7FB-F5C8-4E93-ABA6-5D03710FFAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$546</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$545</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3225" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="1032">
   <si>
     <t>Công lập</t>
   </si>
@@ -2754,15 +2754,6 @@
   </si>
   <si>
     <t>402 Tô Ký ấp Tam Đông 1 xã Thới Tam Thôn huyện Hóc Môn.</t>
-  </si>
-  <si>
-    <t>79784WD5</t>
-  </si>
-  <si>
-    <t>LMG THỎ HỒNG</t>
-  </si>
-  <si>
-    <t>4/4C đường Xuân Thới Sơn 31A Ấp 3 xã Xuân Thới Sơn huyện Hóc Môn Tp.HCM</t>
   </si>
   <si>
     <t>TH Bình Hưng</t>
@@ -3677,8 +3668,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1DFC532E-9892-4B99-9C0C-DBB9738FEE04}" name="Table1" displayName="Table1" ref="A1:G546" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:G546" xr:uid="{1DFC532E-9892-4B99-9C0C-DBB9738FEE04}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1DFC532E-9892-4B99-9C0C-DBB9738FEE04}" name="Table1" displayName="Table1" ref="A1:G545" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G545" xr:uid="{1DFC532E-9892-4B99-9C0C-DBB9738FEE04}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{437BCE42-4A7A-4D2E-B358-E99531A224AF}" name="ma_truong" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{ABECEC33-4124-41E1-AF60-FC6BDCD6BF78}" name="ten_truong" dataDxfId="5"/>
@@ -3989,10 +3980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G787"/>
+  <dimension ref="A1:G786"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A2" sqref="A2:A545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.3"/>
@@ -4009,25 +4000,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>1030</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4048,7 +4039,7 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4069,7 +4060,7 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4090,7 +4081,7 @@
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4111,7 +4102,7 @@
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4132,7 +4123,7 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4153,7 +4144,7 @@
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4174,7 +4165,7 @@
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4195,7 +4186,7 @@
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4214,7 +4205,7 @@
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4233,7 +4224,7 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4252,7 +4243,7 @@
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4273,7 +4264,7 @@
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4294,7 +4285,7 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4313,7 +4304,7 @@
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4334,7 +4325,7 @@
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4355,7 +4346,7 @@
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4376,7 +4367,7 @@
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4397,7 +4388,7 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4418,7 +4409,7 @@
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4439,7 +4430,7 @@
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4460,7 +4451,7 @@
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4479,7 +4470,7 @@
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4498,7 +4489,7 @@
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4519,7 +4510,7 @@
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4538,7 +4529,7 @@
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4557,7 +4548,7 @@
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="8" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
@@ -4578,7 +4569,7 @@
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4597,7 +4588,7 @@
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4616,7 +4607,7 @@
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4635,7 +4626,7 @@
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4656,7 +4647,7 @@
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4677,7 +4668,7 @@
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4698,7 +4689,7 @@
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4717,7 +4708,7 @@
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4738,7 +4729,7 @@
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4761,7 +4752,7 @@
         <v>155</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4784,7 +4775,7 @@
         <v>155</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4807,7 +4798,7 @@
         <v>155</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4830,7 +4821,7 @@
         <v>155</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4853,7 +4844,7 @@
         <v>155</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4876,7 +4867,7 @@
         <v>155</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4899,7 +4890,7 @@
         <v>155</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4922,7 +4913,7 @@
         <v>155</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4945,7 +4936,7 @@
         <v>155</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4968,7 +4959,7 @@
         <v>155</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4991,7 +4982,7 @@
         <v>155</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5014,7 +5005,7 @@
         <v>155</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5037,7 +5028,7 @@
         <v>155</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5060,7 +5051,7 @@
         <v>155</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5083,7 +5074,7 @@
         <v>155</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5106,7 +5097,7 @@
         <v>155</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5127,7 +5118,7 @@
         <v>182</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5150,7 +5141,7 @@
         <v>182</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5173,7 +5164,7 @@
         <v>182</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5196,7 +5187,7 @@
         <v>182</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5219,7 +5210,7 @@
         <v>182</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5242,7 +5233,7 @@
         <v>182</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5265,7 +5256,7 @@
         <v>182</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5288,7 +5279,7 @@
         <v>182</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5311,7 +5302,7 @@
         <v>182</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5334,7 +5325,7 @@
         <v>182</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5357,7 +5348,7 @@
         <v>182</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5380,7 +5371,7 @@
         <v>182</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5403,7 +5394,7 @@
         <v>182</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5426,7 +5417,7 @@
         <v>182</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5449,7 +5440,7 @@
         <v>182</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5472,7 +5463,7 @@
         <v>182</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5495,7 +5486,7 @@
         <v>182</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5518,7 +5509,7 @@
         <v>182</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5541,7 +5532,7 @@
         <v>182</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5564,7 +5555,7 @@
         <v>182</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5587,7 +5578,7 @@
         <v>182</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5610,7 +5601,7 @@
         <v>182</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5633,7 +5624,7 @@
         <v>182</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5654,7 +5645,7 @@
         <v>182</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5677,7 +5668,7 @@
         <v>217</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5700,7 +5691,7 @@
         <v>217</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5723,7 +5714,7 @@
         <v>217</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5746,7 +5737,7 @@
         <v>217</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5769,7 +5760,7 @@
         <v>217</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5792,7 +5783,7 @@
         <v>217</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5815,7 +5806,7 @@
         <v>217</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5838,7 +5829,7 @@
         <v>217</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5861,7 +5852,7 @@
         <v>217</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5884,7 +5875,7 @@
         <v>217</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5907,7 +5898,7 @@
         <v>217</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5930,7 +5921,7 @@
         <v>217</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5953,7 +5944,7 @@
         <v>217</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5976,7 +5967,7 @@
         <v>217</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5999,7 +5990,7 @@
         <v>217</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6022,7 +6013,7 @@
         <v>217</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6045,7 +6036,7 @@
         <v>217</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6068,7 +6059,7 @@
         <v>217</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6091,7 +6082,7 @@
         <v>217</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6114,7 +6105,7 @@
         <v>217</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6137,7 +6128,7 @@
         <v>217</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6160,7 +6151,7 @@
         <v>217</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6181,7 +6172,7 @@
         <v>217</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6204,7 +6195,7 @@
         <v>217</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6227,7 +6218,7 @@
         <v>217</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6250,7 +6241,7 @@
         <v>217</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6273,7 +6264,7 @@
         <v>267</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6296,7 +6287,7 @@
         <v>267</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="105" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6319,7 +6310,7 @@
         <v>267</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="106" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6342,7 +6333,7 @@
         <v>267</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="107" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6365,7 +6356,7 @@
         <v>267</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6388,7 +6379,7 @@
         <v>267</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6411,7 +6402,7 @@
         <v>267</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="110" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6434,7 +6425,7 @@
         <v>267</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="111" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6457,7 +6448,7 @@
         <v>267</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6480,7 +6471,7 @@
         <v>267</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="113" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6503,7 +6494,7 @@
         <v>267</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="114" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6526,7 +6517,7 @@
         <v>267</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="115" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6549,7 +6540,7 @@
         <v>267</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="116" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6572,7 +6563,7 @@
         <v>267</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="117" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6595,7 +6586,7 @@
         <v>267</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="118" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6618,7 +6609,7 @@
         <v>267</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="119" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6641,7 +6632,7 @@
         <v>267</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="120" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6664,7 +6655,7 @@
         <v>267</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="121" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6685,7 +6676,7 @@
         <v>267</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="122" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6706,7 +6697,7 @@
         <v>267</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="123" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6729,7 +6720,7 @@
         <v>304</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="124" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6752,7 +6743,7 @@
         <v>304</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="125" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6775,7 +6766,7 @@
         <v>304</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="126" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6798,7 +6789,7 @@
         <v>304</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="127" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6821,7 +6812,7 @@
         <v>304</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="128" spans="1:7" s="8" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
@@ -6844,7 +6835,7 @@
         <v>304</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="129" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6867,7 +6858,7 @@
         <v>304</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="130" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6890,7 +6881,7 @@
         <v>304</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="131" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6913,7 +6904,7 @@
         <v>304</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="132" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6936,7 +6927,7 @@
         <v>304</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="133" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6959,7 +6950,7 @@
         <v>304</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="134" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -6982,7 +6973,7 @@
         <v>304</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="135" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7005,7 +6996,7 @@
         <v>304</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="136" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7028,7 +7019,7 @@
         <v>304</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="137" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7051,7 +7042,7 @@
         <v>304</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="138" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7074,7 +7065,7 @@
         <v>304</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="139" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7097,7 +7088,7 @@
         <v>304</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="140" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7120,7 +7111,7 @@
         <v>304</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="141" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7143,7 +7134,7 @@
         <v>304</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="142" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7166,7 +7157,7 @@
         <v>304</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="143" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7189,7 +7180,7 @@
         <v>304</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="144" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7212,7 +7203,7 @@
         <v>304</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="145" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7235,7 +7226,7 @@
         <v>304</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="146" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7258,7 +7249,7 @@
         <v>337</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="147" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7281,7 +7272,7 @@
         <v>337</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="148" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7304,7 +7295,7 @@
         <v>337</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="149" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7327,7 +7318,7 @@
         <v>337</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="150" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7350,7 +7341,7 @@
         <v>337</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="151" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7373,7 +7364,7 @@
         <v>337</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="152" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7396,7 +7387,7 @@
         <v>337</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="153" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7419,7 +7410,7 @@
         <v>337</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="154" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7442,7 +7433,7 @@
         <v>337</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="155" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7465,7 +7456,7 @@
         <v>337</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="156" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7488,7 +7479,7 @@
         <v>337</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="157" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7511,7 +7502,7 @@
         <v>337</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="158" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7534,7 +7525,7 @@
         <v>337</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="159" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7557,7 +7548,7 @@
         <v>337</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="160" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7580,7 +7571,7 @@
         <v>337</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="161" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7603,7 +7594,7 @@
         <v>337</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="162" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7626,7 +7617,7 @@
         <v>337</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="163" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7649,7 +7640,7 @@
         <v>337</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="164" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7672,7 +7663,7 @@
         <v>337</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="165" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7695,7 +7686,7 @@
         <v>337</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="166" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7718,7 +7709,7 @@
         <v>337</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="167" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7741,7 +7732,7 @@
         <v>337</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="168" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7764,7 +7755,7 @@
         <v>337</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="169" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7787,7 +7778,7 @@
         <v>337</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="170" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7810,7 +7801,7 @@
         <v>337</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="171" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7833,7 +7824,7 @@
         <v>378</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="172" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7856,7 +7847,7 @@
         <v>378</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="173" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7879,7 +7870,7 @@
         <v>378</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="174" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7902,7 +7893,7 @@
         <v>378</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="175" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7925,7 +7916,7 @@
         <v>378</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="176" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7948,7 +7939,7 @@
         <v>378</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="177" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7971,7 +7962,7 @@
         <v>378</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="178" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -7994,7 +7985,7 @@
         <v>378</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="179" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8017,7 +8008,7 @@
         <v>378</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="180" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8040,7 +8031,7 @@
         <v>378</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="181" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8063,7 +8054,7 @@
         <v>378</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="182" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8086,7 +8077,7 @@
         <v>378</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="183" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8109,7 +8100,7 @@
         <v>378</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="184" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8132,7 +8123,7 @@
         <v>378</v>
       </c>
       <c r="G184" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="185" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8155,7 +8146,7 @@
         <v>378</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="186" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8178,7 +8169,7 @@
         <v>378</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="187" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8201,7 +8192,7 @@
         <v>378</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="188" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8224,7 +8215,7 @@
         <v>378</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="189" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8247,7 +8238,7 @@
         <v>378</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="190" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8270,7 +8261,7 @@
         <v>378</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="191" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8293,7 +8284,7 @@
         <v>378</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="192" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8316,7 +8307,7 @@
         <v>378</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="193" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8339,7 +8330,7 @@
         <v>378</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="194" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8362,7 +8353,7 @@
         <v>378</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="195" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8385,7 +8376,7 @@
         <v>378</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="196" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8408,7 +8399,7 @@
         <v>378</v>
       </c>
       <c r="G196" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="197" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8429,7 +8420,7 @@
         <v>378</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="198" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8452,7 +8443,7 @@
         <v>424</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="199" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8475,7 +8466,7 @@
         <v>424</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="200" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8498,7 +8489,7 @@
         <v>424</v>
       </c>
       <c r="G200" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="201" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8521,7 +8512,7 @@
         <v>424</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="202" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8544,7 +8535,7 @@
         <v>424</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="203" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8567,7 +8558,7 @@
         <v>424</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="204" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8590,7 +8581,7 @@
         <v>424</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="205" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8613,7 +8604,7 @@
         <v>424</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="206" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8636,7 +8627,7 @@
         <v>424</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="207" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8659,7 +8650,7 @@
         <v>424</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="208" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8682,7 +8673,7 @@
         <v>424</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="209" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8705,7 +8696,7 @@
         <v>424</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="210" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8728,7 +8719,7 @@
         <v>424</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="211" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8751,7 +8742,7 @@
         <v>424</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="212" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8774,7 +8765,7 @@
         <v>424</v>
       </c>
       <c r="G212" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="213" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8797,7 +8788,7 @@
         <v>424</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="214" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8820,7 +8811,7 @@
         <v>424</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="215" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8843,7 +8834,7 @@
         <v>424</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="216" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8866,7 +8857,7 @@
         <v>453</v>
       </c>
       <c r="G216" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="217" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8889,7 +8880,7 @@
         <v>453</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="218" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8912,7 +8903,7 @@
         <v>453</v>
       </c>
       <c r="G218" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="219" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8935,7 +8926,7 @@
         <v>453</v>
       </c>
       <c r="G219" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="220" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8958,7 +8949,7 @@
         <v>453</v>
       </c>
       <c r="G220" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="221" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -8981,7 +8972,7 @@
         <v>453</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="222" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9004,7 +8995,7 @@
         <v>453</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="223" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9027,7 +9018,7 @@
         <v>453</v>
       </c>
       <c r="G223" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="224" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9050,7 +9041,7 @@
         <v>453</v>
       </c>
       <c r="G224" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="225" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9073,7 +9064,7 @@
         <v>453</v>
       </c>
       <c r="G225" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="226" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9096,7 +9087,7 @@
         <v>453</v>
       </c>
       <c r="G226" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="227" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9119,7 +9110,7 @@
         <v>453</v>
       </c>
       <c r="G227" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="228" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9142,7 +9133,7 @@
         <v>476</v>
       </c>
       <c r="G228" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="229" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9165,7 +9156,7 @@
         <v>476</v>
       </c>
       <c r="G229" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="230" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9188,7 +9179,7 @@
         <v>476</v>
       </c>
       <c r="G230" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="231" spans="1:7" s="8" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
@@ -9211,7 +9202,7 @@
         <v>476</v>
       </c>
       <c r="G231" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="232" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9234,7 +9225,7 @@
         <v>476</v>
       </c>
       <c r="G232" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="233" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9257,7 +9248,7 @@
         <v>476</v>
       </c>
       <c r="G233" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="234" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9280,7 +9271,7 @@
         <v>476</v>
       </c>
       <c r="G234" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="235" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9303,7 +9294,7 @@
         <v>476</v>
       </c>
       <c r="G235" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="236" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9326,7 +9317,7 @@
         <v>476</v>
       </c>
       <c r="G236" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="237" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9349,7 +9340,7 @@
         <v>476</v>
       </c>
       <c r="G237" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="238" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9370,7 +9361,7 @@
         <v>476</v>
       </c>
       <c r="G238" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="239" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9391,7 +9382,7 @@
         <v>476</v>
       </c>
       <c r="G239" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="240" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9412,7 +9403,7 @@
         <v>476</v>
       </c>
       <c r="G240" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="241" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9433,7 +9424,7 @@
         <v>476</v>
       </c>
       <c r="G241" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="242" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9456,7 +9447,7 @@
         <v>498</v>
       </c>
       <c r="G242" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="243" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9479,7 +9470,7 @@
         <v>498</v>
       </c>
       <c r="G243" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="244" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9502,7 +9493,7 @@
         <v>498</v>
       </c>
       <c r="G244" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="245" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9525,7 +9516,7 @@
         <v>498</v>
       </c>
       <c r="G245" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="246" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9548,7 +9539,7 @@
         <v>498</v>
       </c>
       <c r="G246" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="247" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9571,7 +9562,7 @@
         <v>498</v>
       </c>
       <c r="G247" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="248" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9594,7 +9585,7 @@
         <v>498</v>
       </c>
       <c r="G248" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="249" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9617,7 +9608,7 @@
         <v>498</v>
       </c>
       <c r="G249" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="250" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9640,7 +9631,7 @@
         <v>498</v>
       </c>
       <c r="G250" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="251" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9663,7 +9654,7 @@
         <v>498</v>
       </c>
       <c r="G251" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="252" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9686,7 +9677,7 @@
         <v>498</v>
       </c>
       <c r="G252" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="253" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9709,7 +9700,7 @@
         <v>498</v>
       </c>
       <c r="G253" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="254" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9732,7 +9723,7 @@
         <v>498</v>
       </c>
       <c r="G254" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="255" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9755,7 +9746,7 @@
         <v>498</v>
       </c>
       <c r="G255" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="256" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9778,7 +9769,7 @@
         <v>498</v>
       </c>
       <c r="G256" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="257" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9799,7 +9790,7 @@
         <v>498</v>
       </c>
       <c r="G257" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="258" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9818,7 +9809,7 @@
         <v>498</v>
       </c>
       <c r="G258" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="259" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9841,7 +9832,7 @@
         <v>528</v>
       </c>
       <c r="G259" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="260" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9864,7 +9855,7 @@
         <v>528</v>
       </c>
       <c r="G260" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="261" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9887,7 +9878,7 @@
         <v>528</v>
       </c>
       <c r="G261" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="262" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9910,7 +9901,7 @@
         <v>528</v>
       </c>
       <c r="G262" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="263" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9933,7 +9924,7 @@
         <v>528</v>
       </c>
       <c r="G263" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="264" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9956,7 +9947,7 @@
         <v>528</v>
       </c>
       <c r="G264" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="265" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9979,7 +9970,7 @@
         <v>528</v>
       </c>
       <c r="G265" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="266" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10002,7 +9993,7 @@
         <v>528</v>
       </c>
       <c r="G266" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="267" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10025,7 +10016,7 @@
         <v>528</v>
       </c>
       <c r="G267" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="268" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10048,7 +10039,7 @@
         <v>528</v>
       </c>
       <c r="G268" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="269" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10071,7 +10062,7 @@
         <v>528</v>
       </c>
       <c r="G269" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="270" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10094,7 +10085,7 @@
         <v>528</v>
       </c>
       <c r="G270" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="271" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10117,7 +10108,7 @@
         <v>528</v>
       </c>
       <c r="G271" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="272" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10140,7 +10131,7 @@
         <v>528</v>
       </c>
       <c r="G272" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="273" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10163,7 +10154,7 @@
         <v>528</v>
       </c>
       <c r="G273" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="274" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10186,7 +10177,7 @@
         <v>528</v>
       </c>
       <c r="G274" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="275" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10209,7 +10200,7 @@
         <v>528</v>
       </c>
       <c r="G275" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="276" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10232,7 +10223,7 @@
         <v>558</v>
       </c>
       <c r="G276" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="277" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10255,7 +10246,7 @@
         <v>558</v>
       </c>
       <c r="G277" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="278" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10278,7 +10269,7 @@
         <v>558</v>
       </c>
       <c r="G278" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="279" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10301,7 +10292,7 @@
         <v>558</v>
       </c>
       <c r="G279" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="280" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10324,7 +10315,7 @@
         <v>558</v>
       </c>
       <c r="G280" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="281" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10347,7 +10338,7 @@
         <v>558</v>
       </c>
       <c r="G281" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="282" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10370,7 +10361,7 @@
         <v>558</v>
       </c>
       <c r="G282" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="283" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10393,7 +10384,7 @@
         <v>558</v>
       </c>
       <c r="G283" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="284" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10416,7 +10407,7 @@
         <v>558</v>
       </c>
       <c r="G284" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="285" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10439,7 +10430,7 @@
         <v>558</v>
       </c>
       <c r="G285" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="286" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10462,7 +10453,7 @@
         <v>558</v>
       </c>
       <c r="G286" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="287" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10485,7 +10476,7 @@
         <v>558</v>
       </c>
       <c r="G287" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="288" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10508,7 +10499,7 @@
         <v>558</v>
       </c>
       <c r="G288" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="289" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10531,7 +10522,7 @@
         <v>558</v>
       </c>
       <c r="G289" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="290" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10554,7 +10545,7 @@
         <v>558</v>
       </c>
       <c r="G290" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="291" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10577,7 +10568,7 @@
         <v>558</v>
       </c>
       <c r="G291" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="292" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10600,7 +10591,7 @@
         <v>558</v>
       </c>
       <c r="G292" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="293" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10623,7 +10614,7 @@
         <v>558</v>
       </c>
       <c r="G293" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="294" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10646,7 +10637,7 @@
         <v>558</v>
       </c>
       <c r="G294" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="295" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10669,7 +10660,7 @@
         <v>558</v>
       </c>
       <c r="G295" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="296" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10692,7 +10683,7 @@
         <v>558</v>
       </c>
       <c r="G296" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="297" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10715,7 +10706,7 @@
         <v>592</v>
       </c>
       <c r="G297" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="298" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10738,7 +10729,7 @@
         <v>592</v>
       </c>
       <c r="G298" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="299" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10761,7 +10752,7 @@
         <v>592</v>
       </c>
       <c r="G299" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="300" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10784,7 +10775,7 @@
         <v>592</v>
       </c>
       <c r="G300" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="301" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10807,7 +10798,7 @@
         <v>592</v>
       </c>
       <c r="G301" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="302" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10830,7 +10821,7 @@
         <v>592</v>
       </c>
       <c r="G302" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="303" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10853,7 +10844,7 @@
         <v>592</v>
       </c>
       <c r="G303" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="304" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10876,7 +10867,7 @@
         <v>592</v>
       </c>
       <c r="G304" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="305" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10899,7 +10890,7 @@
         <v>592</v>
       </c>
       <c r="G305" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="306" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10922,7 +10913,7 @@
         <v>592</v>
       </c>
       <c r="G306" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="307" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10945,7 +10936,7 @@
         <v>592</v>
       </c>
       <c r="G307" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="308" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10968,7 +10959,7 @@
         <v>592</v>
       </c>
       <c r="G308" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="309" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10991,7 +10982,7 @@
         <v>592</v>
       </c>
       <c r="G309" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="310" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11014,7 +11005,7 @@
         <v>592</v>
       </c>
       <c r="G310" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="311" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11037,7 +11028,7 @@
         <v>592</v>
       </c>
       <c r="G311" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="312" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11060,7 +11051,7 @@
         <v>616</v>
       </c>
       <c r="G312" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="313" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11083,7 +11074,7 @@
         <v>616</v>
       </c>
       <c r="G313" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="314" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11106,7 +11097,7 @@
         <v>616</v>
       </c>
       <c r="G314" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="315" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11129,7 +11120,7 @@
         <v>616</v>
       </c>
       <c r="G315" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="316" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11152,7 +11143,7 @@
         <v>616</v>
       </c>
       <c r="G316" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="317" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11175,7 +11166,7 @@
         <v>616</v>
       </c>
       <c r="G317" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="318" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11198,7 +11189,7 @@
         <v>616</v>
       </c>
       <c r="G318" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="319" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11221,7 +11212,7 @@
         <v>616</v>
       </c>
       <c r="G319" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="320" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11244,7 +11235,7 @@
         <v>616</v>
       </c>
       <c r="G320" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="321" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11267,7 +11258,7 @@
         <v>616</v>
       </c>
       <c r="G321" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="322" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11290,7 +11281,7 @@
         <v>616</v>
       </c>
       <c r="G322" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="323" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11313,7 +11304,7 @@
         <v>616</v>
       </c>
       <c r="G323" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="324" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11336,7 +11327,7 @@
         <v>616</v>
       </c>
       <c r="G324" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="325" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11359,7 +11350,7 @@
         <v>616</v>
       </c>
       <c r="G325" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="326" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11382,7 +11373,7 @@
         <v>616</v>
       </c>
       <c r="G326" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="327" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11405,7 +11396,7 @@
         <v>616</v>
       </c>
       <c r="G327" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="328" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11428,7 +11419,7 @@
         <v>616</v>
       </c>
       <c r="G328" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="329" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11451,7 +11442,7 @@
         <v>641</v>
       </c>
       <c r="G329" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="330" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11474,7 +11465,7 @@
         <v>641</v>
       </c>
       <c r="G330" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="331" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11497,7 +11488,7 @@
         <v>641</v>
       </c>
       <c r="G331" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="332" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11520,7 +11511,7 @@
         <v>641</v>
       </c>
       <c r="G332" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="333" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11543,7 +11534,7 @@
         <v>641</v>
       </c>
       <c r="G333" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="334" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11566,7 +11557,7 @@
         <v>641</v>
       </c>
       <c r="G334" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="335" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11589,7 +11580,7 @@
         <v>641</v>
       </c>
       <c r="G335" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="336" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11612,7 +11603,7 @@
         <v>641</v>
       </c>
       <c r="G336" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="337" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11635,7 +11626,7 @@
         <v>641</v>
       </c>
       <c r="G337" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="338" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11658,7 +11649,7 @@
         <v>641</v>
       </c>
       <c r="G338" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="339" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11681,7 +11672,7 @@
         <v>641</v>
       </c>
       <c r="G339" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="340" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11704,7 +11695,7 @@
         <v>641</v>
       </c>
       <c r="G340" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="341" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11727,7 +11718,7 @@
         <v>641</v>
       </c>
       <c r="G341" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="342" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11750,7 +11741,7 @@
         <v>641</v>
       </c>
       <c r="G342" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="343" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11773,7 +11764,7 @@
         <v>641</v>
       </c>
       <c r="G343" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="344" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11796,7 +11787,7 @@
         <v>641</v>
       </c>
       <c r="G344" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="345" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11819,7 +11810,7 @@
         <v>641</v>
       </c>
       <c r="G345" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="346" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11842,7 +11833,7 @@
         <v>641</v>
       </c>
       <c r="G346" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="347" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11865,7 +11856,7 @@
         <v>641</v>
       </c>
       <c r="G347" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="348" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11888,7 +11879,7 @@
         <v>641</v>
       </c>
       <c r="G348" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="349" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11911,7 +11902,7 @@
         <v>641</v>
       </c>
       <c r="G349" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="350" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11934,7 +11925,7 @@
         <v>673</v>
       </c>
       <c r="G350" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="351" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11957,7 +11948,7 @@
         <v>673</v>
       </c>
       <c r="G351" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="352" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -11980,7 +11971,7 @@
         <v>673</v>
       </c>
       <c r="G352" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="353" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12003,7 +11994,7 @@
         <v>673</v>
       </c>
       <c r="G353" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="354" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12026,7 +12017,7 @@
         <v>673</v>
       </c>
       <c r="G354" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="355" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12049,7 +12040,7 @@
         <v>673</v>
       </c>
       <c r="G355" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="356" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12072,7 +12063,7 @@
         <v>673</v>
       </c>
       <c r="G356" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="357" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12095,7 +12086,7 @@
         <v>673</v>
       </c>
       <c r="G357" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="358" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12118,7 +12109,7 @@
         <v>673</v>
       </c>
       <c r="G358" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="359" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12141,7 +12132,7 @@
         <v>673</v>
       </c>
       <c r="G359" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="360" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12164,7 +12155,7 @@
         <v>673</v>
       </c>
       <c r="G360" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="361" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12187,7 +12178,7 @@
         <v>673</v>
       </c>
       <c r="G361" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="362" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12210,7 +12201,7 @@
         <v>673</v>
       </c>
       <c r="G362" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="363" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12233,7 +12224,7 @@
         <v>673</v>
       </c>
       <c r="G363" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="364" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12256,7 +12247,7 @@
         <v>673</v>
       </c>
       <c r="G364" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="365" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12279,7 +12270,7 @@
         <v>673</v>
       </c>
       <c r="G365" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="366" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12302,7 +12293,7 @@
         <v>673</v>
       </c>
       <c r="G366" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="367" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12325,7 +12316,7 @@
         <v>673</v>
       </c>
       <c r="G367" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="368" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12348,7 +12339,7 @@
         <v>673</v>
       </c>
       <c r="G368" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="369" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12371,7 +12362,7 @@
         <v>673</v>
       </c>
       <c r="G369" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="370" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12394,7 +12385,7 @@
         <v>673</v>
       </c>
       <c r="G370" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="371" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12415,7 +12406,7 @@
         <v>673</v>
       </c>
       <c r="G371" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="372" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12436,7 +12427,7 @@
         <v>673</v>
       </c>
       <c r="G372" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="373" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12459,7 +12450,7 @@
         <v>717</v>
       </c>
       <c r="G373" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="374" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12482,7 +12473,7 @@
         <v>717</v>
       </c>
       <c r="G374" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="375" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12505,7 +12496,7 @@
         <v>717</v>
       </c>
       <c r="G375" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="376" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12528,7 +12519,7 @@
         <v>717</v>
       </c>
       <c r="G376" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="377" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12551,7 +12542,7 @@
         <v>717</v>
       </c>
       <c r="G377" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="378" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12574,7 +12565,7 @@
         <v>717</v>
       </c>
       <c r="G378" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="379" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12597,7 +12588,7 @@
         <v>717</v>
       </c>
       <c r="G379" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="380" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12620,7 +12611,7 @@
         <v>717</v>
       </c>
       <c r="G380" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="381" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12643,7 +12634,7 @@
         <v>717</v>
       </c>
       <c r="G381" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="382" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12666,7 +12657,7 @@
         <v>717</v>
       </c>
       <c r="G382" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="383" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12689,7 +12680,7 @@
         <v>717</v>
       </c>
       <c r="G383" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="384" spans="1:7" s="8" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
@@ -12712,7 +12703,7 @@
         <v>717</v>
       </c>
       <c r="G384" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="385" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12735,7 +12726,7 @@
         <v>717</v>
       </c>
       <c r="G385" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="386" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12758,7 +12749,7 @@
         <v>717</v>
       </c>
       <c r="G386" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="387" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12781,7 +12772,7 @@
         <v>717</v>
       </c>
       <c r="G387" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="388" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12804,7 +12795,7 @@
         <v>717</v>
       </c>
       <c r="G388" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="389" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12827,7 +12818,7 @@
         <v>717</v>
       </c>
       <c r="G389" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="390" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12850,7 +12841,7 @@
         <v>717</v>
       </c>
       <c r="G390" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="391" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12873,7 +12864,7 @@
         <v>717</v>
       </c>
       <c r="G391" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="392" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12896,7 +12887,7 @@
         <v>717</v>
       </c>
       <c r="G392" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="393" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12919,7 +12910,7 @@
         <v>717</v>
       </c>
       <c r="G393" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="394" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12942,7 +12933,7 @@
         <v>717</v>
       </c>
       <c r="G394" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="395" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12965,7 +12956,7 @@
         <v>717</v>
       </c>
       <c r="G395" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="396" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -12988,7 +12979,7 @@
         <v>760</v>
       </c>
       <c r="G396" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="397" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13011,7 +13002,7 @@
         <v>760</v>
       </c>
       <c r="G397" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="398" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13034,7 +13025,7 @@
         <v>760</v>
       </c>
       <c r="G398" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="399" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13057,7 +13048,7 @@
         <v>760</v>
       </c>
       <c r="G399" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="400" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13080,7 +13071,7 @@
         <v>760</v>
       </c>
       <c r="G400" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="401" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13103,7 +13094,7 @@
         <v>760</v>
       </c>
       <c r="G401" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="402" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13126,7 +13117,7 @@
         <v>760</v>
       </c>
       <c r="G402" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="403" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13149,7 +13140,7 @@
         <v>760</v>
       </c>
       <c r="G403" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="404" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13172,7 +13163,7 @@
         <v>760</v>
       </c>
       <c r="G404" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="405" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13195,7 +13186,7 @@
         <v>760</v>
       </c>
       <c r="G405" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="406" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13218,7 +13209,7 @@
         <v>760</v>
       </c>
       <c r="G406" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="407" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13241,7 +13232,7 @@
         <v>760</v>
       </c>
       <c r="G407" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="408" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13264,7 +13255,7 @@
         <v>760</v>
       </c>
       <c r="G408" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="409" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13287,7 +13278,7 @@
         <v>760</v>
       </c>
       <c r="G409" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="410" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13310,7 +13301,7 @@
         <v>760</v>
       </c>
       <c r="G410" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="411" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13333,7 +13324,7 @@
         <v>760</v>
       </c>
       <c r="G411" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="412" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13356,7 +13347,7 @@
         <v>760</v>
       </c>
       <c r="G412" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="413" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13377,7 +13368,7 @@
         <v>760</v>
       </c>
       <c r="G413" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="414" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13398,7 +13389,7 @@
         <v>760</v>
       </c>
       <c r="G414" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="415" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13421,7 +13412,7 @@
         <v>787</v>
       </c>
       <c r="G415" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="416" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13444,7 +13435,7 @@
         <v>787</v>
       </c>
       <c r="G416" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="417" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13467,7 +13458,7 @@
         <v>787</v>
       </c>
       <c r="G417" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="418" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13490,7 +13481,7 @@
         <v>787</v>
       </c>
       <c r="G418" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="419" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13513,7 +13504,7 @@
         <v>787</v>
       </c>
       <c r="G419" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="420" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13536,7 +13527,7 @@
         <v>787</v>
       </c>
       <c r="G420" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="421" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13559,7 +13550,7 @@
         <v>787</v>
       </c>
       <c r="G421" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="422" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13582,7 +13573,7 @@
         <v>787</v>
       </c>
       <c r="G422" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="423" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13605,7 +13596,7 @@
         <v>787</v>
       </c>
       <c r="G423" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="424" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13628,7 +13619,7 @@
         <v>787</v>
       </c>
       <c r="G424" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="425" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13651,7 +13642,7 @@
         <v>787</v>
       </c>
       <c r="G425" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="426" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13674,7 +13665,7 @@
         <v>787</v>
       </c>
       <c r="G426" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="427" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13697,7 +13688,7 @@
         <v>787</v>
       </c>
       <c r="G427" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="428" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13720,7 +13711,7 @@
         <v>787</v>
       </c>
       <c r="G428" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="429" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13743,7 +13734,7 @@
         <v>787</v>
       </c>
       <c r="G429" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="430" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13766,7 +13757,7 @@
         <v>787</v>
       </c>
       <c r="G430" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="431" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13789,7 +13780,7 @@
         <v>787</v>
       </c>
       <c r="G431" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="432" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13812,7 +13803,7 @@
         <v>787</v>
       </c>
       <c r="G432" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="433" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13835,7 +13826,7 @@
         <v>787</v>
       </c>
       <c r="G433" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="434" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13858,7 +13849,7 @@
         <v>787</v>
       </c>
       <c r="G434" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="435" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13881,7 +13872,7 @@
         <v>787</v>
       </c>
       <c r="G435" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="436" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13904,7 +13895,7 @@
         <v>787</v>
       </c>
       <c r="G436" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="437" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13927,7 +13918,7 @@
         <v>787</v>
       </c>
       <c r="G437" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="438" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13950,7 +13941,7 @@
         <v>787</v>
       </c>
       <c r="G438" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="439" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13973,7 +13964,7 @@
         <v>787</v>
       </c>
       <c r="G439" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="440" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -13996,7 +13987,7 @@
         <v>787</v>
       </c>
       <c r="G440" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="441" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14019,7 +14010,7 @@
         <v>787</v>
       </c>
       <c r="G441" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="442" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14042,7 +14033,7 @@
         <v>787</v>
       </c>
       <c r="G442" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="443" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14065,7 +14056,7 @@
         <v>787</v>
       </c>
       <c r="G443" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="444" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14088,7 +14079,7 @@
         <v>787</v>
       </c>
       <c r="G444" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="445" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14111,7 +14102,7 @@
         <v>787</v>
       </c>
       <c r="G445" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="446" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14134,7 +14125,7 @@
         <v>787</v>
       </c>
       <c r="G446" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="447" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14157,7 +14148,7 @@
         <v>787</v>
       </c>
       <c r="G447" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="448" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14180,7 +14171,7 @@
         <v>787</v>
       </c>
       <c r="G448" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="449" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14203,7 +14194,7 @@
         <v>787</v>
       </c>
       <c r="G449" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="450" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14226,7 +14217,7 @@
         <v>787</v>
       </c>
       <c r="G450" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="451" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14249,7 +14240,7 @@
         <v>787</v>
       </c>
       <c r="G451" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="452" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14272,7 +14263,7 @@
         <v>787</v>
       </c>
       <c r="G452" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="453" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14293,7 +14284,7 @@
         <v>787</v>
       </c>
       <c r="G453" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="454" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14316,7 +14307,7 @@
         <v>787</v>
       </c>
       <c r="G454" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="455" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14339,7 +14330,7 @@
         <v>856</v>
       </c>
       <c r="G455" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="456" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14362,7 +14353,7 @@
         <v>856</v>
       </c>
       <c r="G456" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="457" spans="1:7" s="8" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
@@ -14385,7 +14376,7 @@
         <v>856</v>
       </c>
       <c r="G457" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="458" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14408,7 +14399,7 @@
         <v>856</v>
       </c>
       <c r="G458" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="459" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14431,7 +14422,7 @@
         <v>856</v>
       </c>
       <c r="G459" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="460" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14454,7 +14445,7 @@
         <v>856</v>
       </c>
       <c r="G460" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="461" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14477,7 +14468,7 @@
         <v>856</v>
       </c>
       <c r="G461" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="462" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14500,7 +14491,7 @@
         <v>856</v>
       </c>
       <c r="G462" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="463" spans="1:7" s="8" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
@@ -14523,7 +14514,7 @@
         <v>856</v>
       </c>
       <c r="G463" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="464" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14546,7 +14537,7 @@
         <v>856</v>
       </c>
       <c r="G464" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="465" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14569,7 +14560,7 @@
         <v>856</v>
       </c>
       <c r="G465" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="466" spans="1:7" s="8" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
@@ -14592,7 +14583,7 @@
         <v>856</v>
       </c>
       <c r="G466" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="467" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14615,7 +14606,7 @@
         <v>856</v>
       </c>
       <c r="G467" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="468" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14638,7 +14629,7 @@
         <v>856</v>
       </c>
       <c r="G468" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="469" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14661,7 +14652,7 @@
         <v>856</v>
       </c>
       <c r="G469" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="470" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14684,7 +14675,7 @@
         <v>856</v>
       </c>
       <c r="G470" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="471" spans="1:7" s="8" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
@@ -14707,7 +14698,7 @@
         <v>856</v>
       </c>
       <c r="G471" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="472" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14730,7 +14721,7 @@
         <v>856</v>
       </c>
       <c r="G472" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="473" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14753,7 +14744,7 @@
         <v>856</v>
       </c>
       <c r="G473" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="474" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14776,7 +14767,7 @@
         <v>856</v>
       </c>
       <c r="G474" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="475" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14799,7 +14790,7 @@
         <v>856</v>
       </c>
       <c r="G475" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="476" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14822,7 +14813,7 @@
         <v>856</v>
       </c>
       <c r="G476" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="477" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14845,7 +14836,7 @@
         <v>856</v>
       </c>
       <c r="G477" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="478" spans="1:7" s="8" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
@@ -14868,7 +14859,7 @@
         <v>856</v>
       </c>
       <c r="G478" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="479" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14891,7 +14882,7 @@
         <v>856</v>
       </c>
       <c r="G479" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="480" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -14914,41 +14905,41 @@
         <v>856</v>
       </c>
       <c r="G480" s="7" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="481" spans="1:7" s="8" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A481" s="5" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A481" s="5">
+        <v>79785401</v>
+      </c>
+      <c r="B481" s="6" t="s">
         <v>908</v>
-      </c>
-      <c r="B481" s="6" t="s">
-        <v>909</v>
       </c>
       <c r="C481" s="6" t="s">
         <v>910</v>
       </c>
       <c r="D481" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E481" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F481" s="6" t="s">
-        <v>856</v>
+        <v>909</v>
       </c>
       <c r="G481" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="482" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A482" s="5">
-        <v>79785401</v>
+        <v>79785402</v>
       </c>
       <c r="B482" s="6" t="s">
         <v>911</v>
       </c>
       <c r="C482" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D482" s="6" t="s">
         <v>0</v>
@@ -14957,22 +14948,22 @@
         <v>1</v>
       </c>
       <c r="F482" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G482" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="483" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A483" s="5">
-        <v>79785402</v>
+        <v>79785403</v>
       </c>
       <c r="B483" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="C483" s="6" t="s">
         <v>914</v>
       </c>
-      <c r="C483" s="6" t="s">
-        <v>915</v>
-      </c>
       <c r="D483" s="6" t="s">
         <v>0</v>
       </c>
@@ -14980,22 +14971,22 @@
         <v>1</v>
       </c>
       <c r="F483" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G483" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="484" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A484" s="5">
-        <v>79785403</v>
+        <v>79785404</v>
       </c>
       <c r="B484" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="C484" s="6" t="s">
         <v>916</v>
       </c>
-      <c r="C484" s="6" t="s">
-        <v>917</v>
-      </c>
       <c r="D484" s="6" t="s">
         <v>0</v>
       </c>
@@ -15003,22 +14994,22 @@
         <v>1</v>
       </c>
       <c r="F484" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G484" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="485" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A485" s="5">
-        <v>79785404</v>
+        <v>79785405</v>
       </c>
       <c r="B485" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="C485" s="6" t="s">
         <v>918</v>
       </c>
-      <c r="C485" s="6" t="s">
-        <v>919</v>
-      </c>
       <c r="D485" s="6" t="s">
         <v>0</v>
       </c>
@@ -15026,22 +15017,22 @@
         <v>1</v>
       </c>
       <c r="F485" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G485" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="486" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A486" s="5">
-        <v>79785405</v>
+        <v>79785406</v>
       </c>
       <c r="B486" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="C486" s="6" t="s">
         <v>920</v>
       </c>
-      <c r="C486" s="6" t="s">
-        <v>921</v>
-      </c>
       <c r="D486" s="6" t="s">
         <v>0</v>
       </c>
@@ -15049,22 +15040,22 @@
         <v>1</v>
       </c>
       <c r="F486" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G486" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="487" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A487" s="5">
-        <v>79785406</v>
+        <v>79785407</v>
       </c>
       <c r="B487" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="C487" s="6" t="s">
         <v>922</v>
       </c>
-      <c r="C487" s="6" t="s">
-        <v>923</v>
-      </c>
       <c r="D487" s="6" t="s">
         <v>0</v>
       </c>
@@ -15072,68 +15063,68 @@
         <v>1</v>
       </c>
       <c r="F487" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G487" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="488" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A488" s="5">
-        <v>79785407</v>
+        <v>79785408</v>
       </c>
       <c r="B488" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="C488" s="6" t="s">
         <v>924</v>
       </c>
-      <c r="C488" s="6" t="s">
+      <c r="D488" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E488" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F488" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="G488" s="7" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" s="8" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A489" s="5">
+        <v>79785409</v>
+      </c>
+      <c r="B489" s="6" t="s">
         <v>925</v>
       </c>
-      <c r="D488" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E488" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F488" s="6" t="s">
-        <v>912</v>
-      </c>
-      <c r="G488" s="7" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="489" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A489" s="5">
-        <v>79785408</v>
-      </c>
-      <c r="B489" s="6" t="s">
+      <c r="C489" s="6" t="s">
         <v>926</v>
       </c>
-      <c r="C489" s="6" t="s">
+      <c r="D489" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E489" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F489" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="G489" s="7" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A490" s="5">
+        <v>79785410</v>
+      </c>
+      <c r="B490" s="6" t="s">
         <v>927</v>
       </c>
-      <c r="D489" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E489" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F489" s="6" t="s">
-        <v>912</v>
-      </c>
-      <c r="G489" s="7" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="490" spans="1:7" s="8" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A490" s="5">
-        <v>79785409</v>
-      </c>
-      <c r="B490" s="6" t="s">
+      <c r="C490" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="C490" s="6" t="s">
-        <v>929</v>
-      </c>
       <c r="D490" s="6" t="s">
         <v>0</v>
       </c>
@@ -15141,22 +15132,22 @@
         <v>1</v>
       </c>
       <c r="F490" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G490" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="491" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A491" s="5">
-        <v>79785410</v>
+        <v>79785411</v>
       </c>
       <c r="B491" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="C491" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="C491" s="6" t="s">
-        <v>931</v>
-      </c>
       <c r="D491" s="6" t="s">
         <v>0</v>
       </c>
@@ -15164,22 +15155,22 @@
         <v>1</v>
       </c>
       <c r="F491" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G491" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="492" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A492" s="5">
-        <v>79785411</v>
+        <v>79785412</v>
       </c>
       <c r="B492" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="C492" s="6" t="s">
         <v>932</v>
       </c>
-      <c r="C492" s="6" t="s">
-        <v>933</v>
-      </c>
       <c r="D492" s="6" t="s">
         <v>0</v>
       </c>
@@ -15187,21 +15178,21 @@
         <v>1</v>
       </c>
       <c r="F492" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G492" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="493" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A493" s="5">
-        <v>79785412</v>
+        <v>79785413</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>934</v>
+        <v>386</v>
       </c>
       <c r="C493" s="6" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D493" s="6" t="s">
         <v>0</v>
@@ -15210,21 +15201,21 @@
         <v>1</v>
       </c>
       <c r="F493" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G493" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="494" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A494" s="5">
-        <v>79785413</v>
+        <v>79785414</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>386</v>
+        <v>934</v>
       </c>
       <c r="C494" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D494" s="6" t="s">
         <v>0</v>
@@ -15233,22 +15224,22 @@
         <v>1</v>
       </c>
       <c r="F494" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G494" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="495" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A495" s="5">
-        <v>79785414</v>
+        <v>79785415</v>
       </c>
       <c r="B495" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="C495" s="6" t="s">
         <v>937</v>
       </c>
-      <c r="C495" s="6" t="s">
-        <v>938</v>
-      </c>
       <c r="D495" s="6" t="s">
         <v>0</v>
       </c>
@@ -15256,21 +15247,21 @@
         <v>1</v>
       </c>
       <c r="F495" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G495" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="496" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A496" s="5">
-        <v>79785415</v>
+        <v>79785416</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>939</v>
+        <v>874</v>
       </c>
       <c r="C496" s="6" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D496" s="6" t="s">
         <v>0</v>
@@ -15279,21 +15270,21 @@
         <v>1</v>
       </c>
       <c r="F496" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G496" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="497" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A497" s="5">
-        <v>79785416</v>
+        <v>79785417</v>
       </c>
       <c r="B497" s="6" t="s">
-        <v>874</v>
+        <v>939</v>
       </c>
       <c r="C497" s="6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D497" s="6" t="s">
         <v>0</v>
@@ -15302,22 +15293,22 @@
         <v>1</v>
       </c>
       <c r="F497" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G497" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="498" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A498" s="5">
-        <v>79785417</v>
+        <v>79785418</v>
       </c>
       <c r="B498" s="6" t="s">
+        <v>941</v>
+      </c>
+      <c r="C498" s="6" t="s">
         <v>942</v>
       </c>
-      <c r="C498" s="6" t="s">
-        <v>943</v>
-      </c>
       <c r="D498" s="6" t="s">
         <v>0</v>
       </c>
@@ -15325,22 +15316,22 @@
         <v>1</v>
       </c>
       <c r="F498" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G498" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="499" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A499" s="5">
-        <v>79785418</v>
+        <v>79785419</v>
       </c>
       <c r="B499" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="C499" s="6" t="s">
         <v>944</v>
       </c>
-      <c r="C499" s="6" t="s">
-        <v>945</v>
-      </c>
       <c r="D499" s="6" t="s">
         <v>0</v>
       </c>
@@ -15348,22 +15339,22 @@
         <v>1</v>
       </c>
       <c r="F499" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G499" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="500" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A500" s="5">
-        <v>79785419</v>
+        <v>79785420</v>
       </c>
       <c r="B500" s="6" t="s">
+        <v>945</v>
+      </c>
+      <c r="C500" s="6" t="s">
         <v>946</v>
       </c>
-      <c r="C500" s="6" t="s">
-        <v>947</v>
-      </c>
       <c r="D500" s="6" t="s">
         <v>0</v>
       </c>
@@ -15371,22 +15362,22 @@
         <v>1</v>
       </c>
       <c r="F500" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G500" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="501" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A501" s="5">
-        <v>79785420</v>
+        <v>79785421</v>
       </c>
       <c r="B501" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="C501" s="6" t="s">
         <v>948</v>
       </c>
-      <c r="C501" s="6" t="s">
-        <v>949</v>
-      </c>
       <c r="D501" s="6" t="s">
         <v>0</v>
       </c>
@@ -15394,22 +15385,22 @@
         <v>1</v>
       </c>
       <c r="F501" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G501" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="502" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A502" s="5">
-        <v>79785421</v>
+        <v>79785422</v>
       </c>
       <c r="B502" s="6" t="s">
+        <v>949</v>
+      </c>
+      <c r="C502" s="6" t="s">
         <v>950</v>
       </c>
-      <c r="C502" s="6" t="s">
-        <v>951</v>
-      </c>
       <c r="D502" s="6" t="s">
         <v>0</v>
       </c>
@@ -15417,22 +15408,22 @@
         <v>1</v>
       </c>
       <c r="F502" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G502" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="503" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A503" s="5">
-        <v>79785422</v>
+        <v>79785423</v>
       </c>
       <c r="B503" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="C503" s="6" t="s">
         <v>952</v>
       </c>
-      <c r="C503" s="6" t="s">
-        <v>953</v>
-      </c>
       <c r="D503" s="6" t="s">
         <v>0</v>
       </c>
@@ -15440,22 +15431,22 @@
         <v>1</v>
       </c>
       <c r="F503" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G503" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="504" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A504" s="5">
-        <v>79785423</v>
+        <v>79785424</v>
       </c>
       <c r="B504" s="6" t="s">
+        <v>953</v>
+      </c>
+      <c r="C504" s="6" t="s">
         <v>954</v>
       </c>
-      <c r="C504" s="6" t="s">
-        <v>955</v>
-      </c>
       <c r="D504" s="6" t="s">
         <v>0</v>
       </c>
@@ -15463,22 +15454,22 @@
         <v>1</v>
       </c>
       <c r="F504" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G504" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="505" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A505" s="5">
-        <v>79785424</v>
+        <v>79785427</v>
       </c>
       <c r="B505" s="6" t="s">
+        <v>955</v>
+      </c>
+      <c r="C505" s="6" t="s">
         <v>956</v>
       </c>
-      <c r="C505" s="6" t="s">
-        <v>957</v>
-      </c>
       <c r="D505" s="6" t="s">
         <v>0</v>
       </c>
@@ -15486,21 +15477,21 @@
         <v>1</v>
       </c>
       <c r="F505" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G505" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="506" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A506" s="5">
-        <v>79785427</v>
+        <v>79785428</v>
       </c>
       <c r="B506" s="6" t="s">
-        <v>958</v>
+        <v>530</v>
       </c>
       <c r="C506" s="6" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D506" s="6" t="s">
         <v>0</v>
@@ -15509,21 +15500,21 @@
         <v>1</v>
       </c>
       <c r="F506" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G506" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="507" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A507" s="5">
-        <v>79785428</v>
+        <v>79785429</v>
       </c>
       <c r="B507" s="6" t="s">
-        <v>530</v>
+        <v>24</v>
       </c>
       <c r="C507" s="6" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D507" s="6" t="s">
         <v>0</v>
@@ -15532,45 +15523,45 @@
         <v>1</v>
       </c>
       <c r="F507" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G507" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="508" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A508" s="5">
-        <v>79785429</v>
+        <v>79785430</v>
       </c>
       <c r="B508" s="6" t="s">
-        <v>24</v>
+        <v>959</v>
       </c>
       <c r="C508" s="6" t="s">
+        <v>960</v>
+      </c>
+      <c r="D508" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E508" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F508" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="G508" s="7" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" s="8" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A509" s="5">
+        <v>79785431</v>
+      </c>
+      <c r="B509" s="6" t="s">
         <v>961</v>
       </c>
-      <c r="D508" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E508" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F508" s="6" t="s">
-        <v>912</v>
-      </c>
-      <c r="G508" s="7" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="509" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A509" s="5">
-        <v>79785430</v>
-      </c>
-      <c r="B509" s="6" t="s">
+      <c r="C509" s="6" t="s">
         <v>962</v>
       </c>
-      <c r="C509" s="6" t="s">
-        <v>963</v>
-      </c>
       <c r="D509" s="6" t="s">
         <v>0</v>
       </c>
@@ -15578,45 +15569,43 @@
         <v>1</v>
       </c>
       <c r="F509" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G509" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="510" spans="1:7" s="8" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
       <c r="A510" s="5">
-        <v>79785431</v>
+        <v>79785432</v>
       </c>
       <c r="B510" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="C510" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="C510" s="6" t="s">
+      <c r="D510" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E510" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F510" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="G510" s="7" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A511" s="5">
+        <v>79785433</v>
+      </c>
+      <c r="B511" s="6" t="s">
         <v>965</v>
       </c>
-      <c r="D510" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E510" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F510" s="6" t="s">
-        <v>912</v>
-      </c>
-      <c r="G510" s="7" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="511" spans="1:7" s="8" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A511" s="5">
-        <v>79785432</v>
-      </c>
-      <c r="B511" s="6" t="s">
-        <v>966</v>
-      </c>
-      <c r="C511" s="6" t="s">
-        <v>967</v>
-      </c>
+      <c r="C511" s="6"/>
       <c r="D511" s="6" t="s">
         <v>0</v>
       </c>
@@ -15624,18 +15613,18 @@
         <v>1</v>
       </c>
       <c r="F511" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G511" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="512" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A512" s="5">
-        <v>79785433</v>
+        <v>79785434</v>
       </c>
       <c r="B512" s="6" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C512" s="6"/>
       <c r="D512" s="6" t="s">
@@ -15645,131 +15634,133 @@
         <v>1</v>
       </c>
       <c r="F512" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G512" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="513" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A513" s="5">
-        <v>79785434</v>
+        <v>79785435</v>
       </c>
       <c r="B513" s="6" t="s">
-        <v>969</v>
+        <v>332</v>
       </c>
       <c r="C513" s="6"/>
       <c r="D513" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E513" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F513" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G513" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="514" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A514" s="5">
-        <v>79785435</v>
+        <v>79785436</v>
       </c>
       <c r="B514" s="6" t="s">
-        <v>332</v>
+        <v>17</v>
       </c>
       <c r="C514" s="6"/>
       <c r="D514" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E514" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F514" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G514" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="515" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A515" s="5">
-        <v>79785436</v>
+        <v>79785601</v>
       </c>
       <c r="B515" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C515" s="6"/>
+        <v>967</v>
+      </c>
+      <c r="C515" s="6" t="s">
+        <v>968</v>
+      </c>
       <c r="D515" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E515" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F515" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G515" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="516" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A516" s="5">
-        <v>79785601</v>
+        <v>79786401</v>
       </c>
       <c r="B516" s="6" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C516" s="6" t="s">
         <v>971</v>
       </c>
       <c r="D516" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E516" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F516" s="6" t="s">
-        <v>912</v>
+        <v>970</v>
       </c>
       <c r="G516" s="7" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="517" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" s="8" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
       <c r="A517" s="5">
-        <v>79786401</v>
+        <v>79786402</v>
       </c>
       <c r="B517" s="6" t="s">
         <v>972</v>
       </c>
       <c r="C517" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="D517" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E517" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F517" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="G517" s="7" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A518" s="5">
+        <v>79786403</v>
+      </c>
+      <c r="B518" s="6" t="s">
         <v>974</v>
       </c>
-      <c r="D517" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E517" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F517" s="6" t="s">
-        <v>973</v>
-      </c>
-      <c r="G517" s="7" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="518" spans="1:7" s="8" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A518" s="5">
-        <v>79786402</v>
-      </c>
-      <c r="B518" s="6" t="s">
+      <c r="C518" s="6" t="s">
         <v>975</v>
       </c>
-      <c r="C518" s="6" t="s">
-        <v>976</v>
-      </c>
       <c r="D518" s="6" t="s">
         <v>0</v>
       </c>
@@ -15777,21 +15768,21 @@
         <v>1</v>
       </c>
       <c r="F518" s="6" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="G518" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="519" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A519" s="5">
-        <v>79786403</v>
+        <v>79786404</v>
       </c>
       <c r="B519" s="6" t="s">
-        <v>977</v>
+        <v>672</v>
       </c>
       <c r="C519" s="6" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D519" s="6" t="s">
         <v>0</v>
@@ -15800,21 +15791,21 @@
         <v>1</v>
       </c>
       <c r="F519" s="6" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="G519" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="520" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A520" s="5">
-        <v>79786404</v>
+        <v>79786405</v>
       </c>
       <c r="B520" s="6" t="s">
-        <v>672</v>
+        <v>977</v>
       </c>
       <c r="C520" s="6" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D520" s="6" t="s">
         <v>0</v>
@@ -15823,22 +15814,22 @@
         <v>1</v>
       </c>
       <c r="F520" s="6" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="G520" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="521" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A521" s="5">
-        <v>79786405</v>
+        <v>79786406</v>
       </c>
       <c r="B521" s="6" t="s">
+        <v>979</v>
+      </c>
+      <c r="C521" s="6" t="s">
         <v>980</v>
       </c>
-      <c r="C521" s="6" t="s">
-        <v>981</v>
-      </c>
       <c r="D521" s="6" t="s">
         <v>0</v>
       </c>
@@ -15846,68 +15837,68 @@
         <v>1</v>
       </c>
       <c r="F521" s="6" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="G521" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="522" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A522" s="5">
-        <v>79786406</v>
+        <v>79786407</v>
       </c>
       <c r="B522" s="6" t="s">
+        <v>981</v>
+      </c>
+      <c r="C522" s="6" t="s">
         <v>982</v>
       </c>
-      <c r="C522" s="6" t="s">
+      <c r="D522" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E522" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F522" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="G522" s="7" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" s="8" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A523" s="5">
+        <v>79786408</v>
+      </c>
+      <c r="B523" s="6" t="s">
         <v>983</v>
       </c>
-      <c r="D522" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E522" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F522" s="6" t="s">
-        <v>973</v>
-      </c>
-      <c r="G522" s="7" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="523" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A523" s="5">
-        <v>79786407</v>
-      </c>
-      <c r="B523" s="6" t="s">
+      <c r="C523" s="6" t="s">
         <v>984</v>
       </c>
-      <c r="C523" s="6" t="s">
+      <c r="D523" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E523" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F523" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="G523" s="7" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A524" s="5">
+        <v>79786409</v>
+      </c>
+      <c r="B524" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C524" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="D523" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E523" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F523" s="6" t="s">
-        <v>973</v>
-      </c>
-      <c r="G523" s="7" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="524" spans="1:7" s="8" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A524" s="5">
-        <v>79786408</v>
-      </c>
-      <c r="B524" s="6" t="s">
-        <v>986</v>
-      </c>
-      <c r="C524" s="6" t="s">
-        <v>987</v>
-      </c>
       <c r="D524" s="6" t="s">
         <v>0</v>
       </c>
@@ -15915,21 +15906,21 @@
         <v>1</v>
       </c>
       <c r="F524" s="6" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="G524" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="525" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A525" s="5">
-        <v>79786409</v>
+        <v>79786410</v>
       </c>
       <c r="B525" s="6" t="s">
-        <v>271</v>
+        <v>986</v>
       </c>
       <c r="C525" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D525" s="6" t="s">
         <v>0</v>
@@ -15938,22 +15929,22 @@
         <v>1</v>
       </c>
       <c r="F525" s="6" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="G525" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="526" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A526" s="5">
-        <v>79786410</v>
+        <v>79786411</v>
       </c>
       <c r="B526" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="C526" s="6" t="s">
         <v>989</v>
       </c>
-      <c r="C526" s="6" t="s">
-        <v>990</v>
-      </c>
       <c r="D526" s="6" t="s">
         <v>0</v>
       </c>
@@ -15961,21 +15952,21 @@
         <v>1</v>
       </c>
       <c r="F526" s="6" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="G526" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="527" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A527" s="5">
-        <v>79786411</v>
+        <v>79786412</v>
       </c>
       <c r="B527" s="6" t="s">
-        <v>991</v>
+        <v>5</v>
       </c>
       <c r="C527" s="6" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D527" s="6" t="s">
         <v>0</v>
@@ -15984,21 +15975,21 @@
         <v>1</v>
       </c>
       <c r="F527" s="6" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="G527" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="528" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A528" s="5">
-        <v>79786412</v>
+        <v>79786413</v>
       </c>
       <c r="B528" s="6" t="s">
-        <v>5</v>
+        <v>991</v>
       </c>
       <c r="C528" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D528" s="6" t="s">
         <v>0</v>
@@ -16007,22 +15998,20 @@
         <v>1</v>
       </c>
       <c r="F528" s="6" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="G528" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="529" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A529" s="5">
-        <v>79786413</v>
+        <v>79786414</v>
       </c>
       <c r="B529" s="6" t="s">
-        <v>994</v>
-      </c>
-      <c r="C529" s="6" t="s">
-        <v>995</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="C529" s="6"/>
       <c r="D529" s="6" t="s">
         <v>0</v>
       </c>
@@ -16030,20 +16019,22 @@
         <v>1</v>
       </c>
       <c r="F529" s="6" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="G529" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="530" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A530" s="5">
-        <v>79786414</v>
+        <v>79787401</v>
       </c>
       <c r="B530" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="C530" s="6"/>
+        <v>993</v>
+      </c>
+      <c r="C530" s="6" t="s">
+        <v>995</v>
+      </c>
       <c r="D530" s="6" t="s">
         <v>0</v>
       </c>
@@ -16051,21 +16042,21 @@
         <v>1</v>
       </c>
       <c r="F530" s="6" t="s">
-        <v>973</v>
+        <v>994</v>
       </c>
       <c r="G530" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="531" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A531" s="5">
-        <v>79787401</v>
+        <v>79787402</v>
       </c>
       <c r="B531" s="6" t="s">
         <v>996</v>
       </c>
       <c r="C531" s="6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D531" s="6" t="s">
         <v>0</v>
@@ -16074,22 +16065,22 @@
         <v>1</v>
       </c>
       <c r="F531" s="6" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="G531" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="532" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A532" s="5">
-        <v>79787402</v>
+        <v>79787403</v>
       </c>
       <c r="B532" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="C532" s="6" t="s">
         <v>999</v>
       </c>
-      <c r="C532" s="6" t="s">
-        <v>1000</v>
-      </c>
       <c r="D532" s="6" t="s">
         <v>0</v>
       </c>
@@ -16097,22 +16088,22 @@
         <v>1</v>
       </c>
       <c r="F532" s="6" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="G532" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="533" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A533" s="5">
-        <v>79787403</v>
+        <v>79787404</v>
       </c>
       <c r="B533" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C533" s="6" t="s">
         <v>1001</v>
       </c>
-      <c r="C533" s="6" t="s">
-        <v>1002</v>
-      </c>
       <c r="D533" s="6" t="s">
         <v>0</v>
       </c>
@@ -16120,21 +16111,21 @@
         <v>1</v>
       </c>
       <c r="F533" s="6" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="G533" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="534" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A534" s="5">
-        <v>79787404</v>
+        <v>79787405</v>
       </c>
       <c r="B534" s="6" t="s">
-        <v>1003</v>
+        <v>839</v>
       </c>
       <c r="C534" s="6" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D534" s="6" t="s">
         <v>0</v>
@@ -16143,21 +16134,21 @@
         <v>1</v>
       </c>
       <c r="F534" s="6" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="G534" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="535" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A535" s="5">
-        <v>79787405</v>
+        <v>79787406</v>
       </c>
       <c r="B535" s="6" t="s">
-        <v>839</v>
+        <v>1003</v>
       </c>
       <c r="C535" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D535" s="6" t="s">
         <v>0</v>
@@ -16166,22 +16157,22 @@
         <v>1</v>
       </c>
       <c r="F535" s="6" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="G535" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="536" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A536" s="5">
-        <v>79787406</v>
+        <v>79787407</v>
       </c>
       <c r="B536" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C536" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="C536" s="6" t="s">
-        <v>1007</v>
-      </c>
       <c r="D536" s="6" t="s">
         <v>0</v>
       </c>
@@ -16189,22 +16180,22 @@
         <v>1</v>
       </c>
       <c r="F536" s="6" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="G536" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="537" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A537" s="5">
-        <v>79787407</v>
+        <v>79787408</v>
       </c>
       <c r="B537" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C537" s="6" t="s">
         <v>1008</v>
       </c>
-      <c r="C537" s="6" t="s">
-        <v>1009</v>
-      </c>
       <c r="D537" s="6" t="s">
         <v>0</v>
       </c>
@@ -16212,22 +16203,22 @@
         <v>1</v>
       </c>
       <c r="F537" s="6" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="G537" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="538" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A538" s="5">
-        <v>79787408</v>
+        <v>79787409</v>
       </c>
       <c r="B538" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C538" s="6" t="s">
         <v>1010</v>
       </c>
-      <c r="C538" s="6" t="s">
-        <v>1011</v>
-      </c>
       <c r="D538" s="6" t="s">
         <v>0</v>
       </c>
@@ -16235,22 +16226,22 @@
         <v>1</v>
       </c>
       <c r="F538" s="6" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="G538" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="539" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A539" s="5">
-        <v>79787409</v>
+        <v>79787410</v>
       </c>
       <c r="B539" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C539" s="6" t="s">
         <v>1012</v>
       </c>
-      <c r="C539" s="6" t="s">
-        <v>1013</v>
-      </c>
       <c r="D539" s="6" t="s">
         <v>0</v>
       </c>
@@ -16258,22 +16249,22 @@
         <v>1</v>
       </c>
       <c r="F539" s="6" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="G539" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="540" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A540" s="5">
-        <v>79787410</v>
+        <v>79787411</v>
       </c>
       <c r="B540" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C540" s="6" t="s">
         <v>1014</v>
       </c>
-      <c r="C540" s="6" t="s">
-        <v>1015</v>
-      </c>
       <c r="D540" s="6" t="s">
         <v>0</v>
       </c>
@@ -16281,22 +16272,22 @@
         <v>1</v>
       </c>
       <c r="F540" s="6" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="G540" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="541" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A541" s="5">
-        <v>79787411</v>
+        <v>79787412</v>
       </c>
       <c r="B541" s="6" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C541" s="6" t="s">
         <v>1016</v>
       </c>
-      <c r="C541" s="6" t="s">
-        <v>1017</v>
-      </c>
       <c r="D541" s="6" t="s">
         <v>0</v>
       </c>
@@ -16304,22 +16295,22 @@
         <v>1</v>
       </c>
       <c r="F541" s="6" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="G541" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="542" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A542" s="5">
-        <v>79787412</v>
+        <v>79787413</v>
       </c>
       <c r="B542" s="6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C542" s="6" t="s">
         <v>1018</v>
       </c>
-      <c r="C542" s="6" t="s">
-        <v>1019</v>
-      </c>
       <c r="D542" s="6" t="s">
         <v>0</v>
       </c>
@@ -16327,101 +16318,86 @@
         <v>1</v>
       </c>
       <c r="F542" s="6" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="G542" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="543" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A543" s="5">
-        <v>79787413</v>
+        <v>79787414</v>
       </c>
       <c r="B543" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C543" s="6" t="s">
         <v>1020</v>
       </c>
-      <c r="C543" s="6" t="s">
+      <c r="D543" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E543" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F543" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="G543" s="7" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" s="8" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A544" s="5">
+        <v>79787415</v>
+      </c>
+      <c r="B544" s="6" t="s">
         <v>1021</v>
       </c>
-      <c r="D543" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E543" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F543" s="6" t="s">
-        <v>997</v>
-      </c>
-      <c r="G543" s="7" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="544" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A544" s="5">
-        <v>79787414</v>
-      </c>
-      <c r="B544" s="6" t="s">
+      <c r="C544" s="6" t="s">
         <v>1022</v>
       </c>
-      <c r="C544" s="6" t="s">
+      <c r="D544" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E544" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F544" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="G544" s="7" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A545" s="9">
+        <v>79787416</v>
+      </c>
+      <c r="B545" s="10" t="s">
         <v>1023</v>
       </c>
-      <c r="D544" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E544" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F544" s="6" t="s">
-        <v>997</v>
-      </c>
-      <c r="G544" s="7" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="545" spans="1:7" s="8" customFormat="1" ht="37.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A545" s="5">
-        <v>79787415</v>
-      </c>
-      <c r="B545" s="6" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C545" s="6" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D545" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E545" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F545" s="6" t="s">
-        <v>997</v>
-      </c>
-      <c r="G545" s="7" t="s">
-        <v>1034</v>
+      <c r="C545" s="10"/>
+      <c r="D545" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E545" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F545" s="10" t="s">
+        <v>994</v>
+      </c>
+      <c r="G545" s="11" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="546" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A546" s="9">
-        <v>79787416</v>
-      </c>
-      <c r="B546" s="10" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C546" s="10"/>
-      <c r="D546" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E546" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F546" s="10" t="s">
-        <v>997</v>
-      </c>
-      <c r="G546" s="11" t="s">
-        <v>1034</v>
-      </c>
+      <c r="A546" s="12"/>
+      <c r="B546" s="12"/>
+      <c r="C546" s="12"/>
+      <c r="D546" s="12"/>
+      <c r="E546" s="12"/>
+      <c r="F546" s="12"/>
     </row>
     <row r="547" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A547" s="12"/>
@@ -18342,14 +18318,6 @@
       <c r="D786" s="12"/>
       <c r="E786" s="12"/>
       <c r="F786" s="12"/>
-    </row>
-    <row r="787" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A787" s="12"/>
-      <c r="B787" s="12"/>
-      <c r="C787" s="12"/>
-      <c r="D787" s="12"/>
-      <c r="E787" s="12"/>
-      <c r="F787" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
